--- a/Daily Activity/2025/2025 Worksheet.xlsx
+++ b/Daily Activity/2025/2025 Worksheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -92,6 +92,28 @@
   </si>
   <si>
     <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imported Promotion
+Order in UAT for 7 regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manirathnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested centra. Bugs found(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inprogress</t>
   </si>
 </sst>
 </file>
@@ -107,6 +129,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -134,7 +157,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -192,7 +214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,11 +227,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,32 +323,31 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="26.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="21.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="7.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="26.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.3"/>
   </cols>
   <sheetData>
@@ -401,14 +430,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <v>45659</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <v>45660</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>8098</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Daily Activity/2025/2025 Worksheet.xlsx
+++ b/Daily Activity/2025/2025 Worksheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve">Inprogress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepard KT Documents for integrations</t>
   </si>
 </sst>
 </file>
@@ -323,14 +326,14 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="26.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="34.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.56"/>
@@ -460,7 +463,7 @@
       <c r="D4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -477,10 +480,28 @@
       <c r="A5" s="4" t="n">
         <v>45661</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>8098</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>45662</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Daily Activity/2025/2025 Worksheet.xlsx
+++ b/Daily Activity/2025/2025 Worksheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t xml:space="preserve">Prepard KT Documents for integrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Purchase Management
+GR and AP Invoice Bugs found(2)</t>
   </si>
 </sst>
 </file>
@@ -242,8 +246,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -326,14 +330,15 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="34.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.56"/>
@@ -475,6 +480,9 @@
       <c r="H4" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="J4" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -483,7 +491,7 @@
       <c r="D5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -504,9 +512,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <v>45663</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>8098</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Daily Activity/2025/2025 Worksheet.xlsx
+++ b/Daily Activity/2025/2025 Worksheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -121,6 +121,10 @@
   <si>
     <t xml:space="preserve">Tested Purchase Management
 GR and AP Invoice Bugs found(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Purchase Management
+AP Invoice and NTA AP Payment </t>
   </si>
 </sst>
 </file>
@@ -330,10 +334,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
@@ -519,7 +523,7 @@
       <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="0" t="s">
@@ -535,9 +539,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <v>45664</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>8098</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Daily Activity/2025/2025 Worksheet.xlsx
+++ b/Daily Activity/2025/2025 Worksheet.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-01" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2025 Summary" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -125,15 +126,70 @@
   <si>
     <t xml:space="preserve">Tested Purchase Management
 AP Invoice and NTA AP Payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested Purchase Management NTA AP invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLIDAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEAVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -170,7 +226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +239,20 @@
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF66BAAA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -197,6 +265,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -225,7 +300,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,8 +325,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -279,7 +370,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -307,7 +398,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF66BAAA"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -333,16 +424,16 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.56"/>
@@ -543,10 +634,10 @@
       <c r="A8" s="4" t="n">
         <v>45664</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="0" t="s">
@@ -565,6 +656,24 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <v>45665</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>8098</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,4 +800,133 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="n">
+        <f aca="false">COUNTIF('Jan-01'!B2:B32,"YES")</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <f aca="false">COUNTIF('Jan-01'!C2:C32,"YES")</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <f aca="false">SUM('Jan-01'!J2:J32)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <f aca="false">SUM(B2:B13)</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <f aca="false">SUM(C2:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <f aca="false">SUM(D2:D13)</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Daily Activity/2025/2025 Worksheet.xlsx
+++ b/Daily Activity/2025/2025 Worksheet.xlsx
@@ -9,7 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="Jan-01" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="2025 Summary" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Feb-02" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="2025 Summary" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -129,6 +130,12 @@
   </si>
   <si>
     <t xml:space="preserve">Tested Purchase Management NTA AP invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested ACL CheckList for user NGUYEDD42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested ACL CheckList for user PHAMCX7(185 SR)</t>
   </si>
   <si>
     <t xml:space="preserve">MONTH</t>
@@ -191,7 +198,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -221,12 +228,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,24 +248,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66BAAA"/>
+        <fgColor rgb="FF729FCF"/>
         <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF66BAAA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -265,6 +272,27 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -300,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -313,7 +341,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -325,23 +365,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,9 +438,9 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -397,7 +465,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF66BAAA"/>
+      <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -424,16 +492,16 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="44.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.56"/>
@@ -525,22 +593,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>45658</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="7" t="n">
         <v>45659</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -557,13 +625,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="7" t="n">
         <v>45660</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -580,13 +648,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="7" t="n">
         <v>45661</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -599,22 +667,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
         <v>45662</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="7" t="n">
         <v>45663</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="0" t="s">
@@ -631,13 +699,13 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="7" t="n">
         <v>45664</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="0" t="s">
@@ -654,13 +722,13 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="7" t="n">
         <v>45665</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="0" t="s">
@@ -677,117 +745,172 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="7" t="n">
         <v>45666</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>8098</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="7" t="n">
         <v>45667</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>8099</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
         <v>45668</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="n">
         <v>45669</v>
       </c>
+      <c r="B13" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="7" t="n">
         <v>45670</v>
       </c>
+      <c r="D14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>8098</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="7" t="n">
         <v>45671</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <v>45672</v>
       </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="7" t="n">
         <v>45673</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="7" t="n">
         <v>45674</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="7" t="n">
         <v>45675</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="7" t="n">
         <v>45676</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="7" t="n">
         <v>45677</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="7" t="n">
         <v>45678</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="7" t="n">
         <v>45679</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="7" t="n">
         <v>45680</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="7" t="n">
         <v>45681</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="7" t="n">
         <v>45682</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="7" t="n">
         <v>45683</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="7" t="n">
         <v>45684</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="7" t="n">
         <v>45685</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="7" t="n">
         <v>45686</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="7" t="n">
         <v>45687</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="7" t="n">
         <v>45688</v>
       </c>
     </row>
@@ -807,116 +930,413 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.43"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <v>45716</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="F5:I19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G5" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="H5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="I5" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="18" t="n">
         <f aca="false">COUNTIF('Jan-01'!B2:B32,"YES")</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="19" t="n">
         <f aca="false">COUNTIF('Jan-01'!C2:C32,"YES")</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19" t="n">
         <f aca="false">SUM('Jan-01'!J2:J32)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="10" t="n">
-        <f aca="false">SUM(B2:B13)</f>
-        <v>2</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <f aca="false">SUM(C2:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="10" t="n">
-        <f aca="false">SUM(D2:D13)</f>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <f aca="false">SUM(G6:G17)</f>
+        <v>4</v>
+      </c>
+      <c r="H19" s="20" t="n">
+        <f aca="false">SUM(H6:H17)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="20" t="n">
+        <f aca="false">SUM(I6:I17)</f>
         <v>8</v>
       </c>
     </row>

--- a/Daily Activity/2025/2025 Worksheet.xlsx
+++ b/Daily Activity/2025/2025 Worksheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-01" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tested ACL CheckList for user PHAMCX7(185 SR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested ACL CheckList for user TANGTX23</t>
   </si>
   <si>
     <t xml:space="preserve">MONTH</t>
@@ -198,7 +201,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -226,17 +229,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -393,7 +385,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -401,7 +393,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -492,11 +484,11 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
@@ -820,23 +812,41 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+    <row r="15" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
         <v>45671</v>
       </c>
-    </row>
-    <row r="16" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="n">
         <v>45672</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>45673</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>8098</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -932,27 +942,27 @@
   </sheetPr>
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.68"/>
@@ -1193,32 +1203,32 @@
   <dimension ref="F5:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="18" t="n">
         <f aca="false">COUNTIF('Jan-01'!B2:B32,"YES")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="19" t="n">
         <f aca="false">COUNTIF('Jan-01'!C2:C32,"YES")</f>
@@ -1231,7 +1241,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -1239,7 +1249,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -1247,7 +1257,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -1255,7 +1265,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -1263,7 +1273,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
@@ -1271,7 +1281,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -1279,7 +1289,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -1287,7 +1297,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -1295,7 +1305,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -1303,7 +1313,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -1311,7 +1321,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -1325,11 +1335,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" s="20" t="n">
         <f aca="false">SUM(G6:G17)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="20" t="n">
         <f aca="false">SUM(H6:H17)</f>

--- a/Daily Activity/2025/2025 Worksheet.xlsx
+++ b/Daily Activity/2025/2025 Worksheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -484,11 +484,11 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
@@ -853,6 +853,21 @@
       <c r="A18" s="7" t="n">
         <v>45674</v>
       </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>8098</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
@@ -946,7 +961,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.47"/>
@@ -955,7 +970,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.46"/>
@@ -1206,7 +1221,7 @@
       <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="16" t="s">
